--- a/for_apriori.xlsx
+++ b/for_apriori.xlsx
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -25301,7 +25301,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
@@ -31301,7 +31301,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>packing kardus bubble warp</t>
         </is>
       </c>
     </row>
